--- a/src/excel-data/national.xlsx
+++ b/src/excel-data/national.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBB5F15-CAD0-264E-A8C6-BCAFB148653A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EAA2C3-D186-574C-9E02-54D67B367F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,18 +37,12 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
     <t>price_adult_phone</t>
   </si>
   <si>
     <t>price_child_regular</t>
   </si>
   <si>
-    <t>price_child_advance</t>
-  </si>
-  <si>
     <t>price_child_phone</t>
   </si>
   <si>
@@ -221,13 +215,25 @@
   </si>
   <si>
     <t>高级车厢体验, 超长途旅游</t>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +246,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,13 +274,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,15 +621,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,545 +661,817 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
       <c r="E2">
         <v>50000</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>25000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2">
-        <v>25000</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5</v>
       </c>
-      <c r="Z2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
       </c>
       <c r="E3">
         <v>80000</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="G3">
         <v>40000</v>
       </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
+      <c r="H3" t="s">
+        <v>27</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
       </c>
       <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>35</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>36</v>
       </c>
-      <c r="W3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>5</v>
       </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
       <c r="E4">
         <v>100000</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
+        <v>27</v>
+      </c>
+      <c r="G4">
         <v>50000</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
       <c r="N4" t="s">
         <v>49</v>
       </c>
       <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>35</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>36</v>
       </c>
-      <c r="W4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5</v>
       </c>
-      <c r="Z4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
       </c>
       <c r="E5">
         <v>70000</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>35000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>35000</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="S5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
         <v>32</v>
       </c>
-      <c r="S5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>35</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
         <v>36</v>
       </c>
-      <c r="W5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>5</v>
       </c>
-      <c r="Z5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
       </c>
       <c r="E6">
         <v>110000</v>
       </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>55000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>55000</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
         <v>32</v>
       </c>
-      <c r="S6" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>34</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>35</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
         <v>36</v>
       </c>
-      <c r="W6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4</v>
       </c>
-      <c r="Z6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
       </c>
       <c r="E7">
         <v>140000</v>
       </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>70000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>70000</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>34</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>35</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
         <v>36</v>
       </c>
-      <c r="W7" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4</v>
       </c>
-      <c r="Z7" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N1:U7 A1:L7 Z1:Z7 V1:Y7" numberStoredAsText="1"/>
+    <ignoredError sqref="O1:AA7 A1:E7 F1:G7 H1:H7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/excel-data/national.xlsx
+++ b/src/excel-data/national.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EAA2C3-D186-574C-9E02-54D67B367F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8144F843-7CDE-0046-A9FD-F908DDAE2302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>sortOrder</t>
   </si>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>price_free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -635,7 +639,7 @@
     <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,8 +721,11 @@
       <c r="AA1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
@@ -792,7 +799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
@@ -860,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -928,7 +935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>

--- a/src/excel-data/national.xlsx
+++ b/src/excel-data/national.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8144F843-7CDE-0046-A9FD-F908DDAE2302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF6D04-F28F-CF45-918E-C407D54CD924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全国周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>sortOrder</t>
   </si>
@@ -106,9 +106,6 @@
     <t/>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>全年可用</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>日本全国JR线路的14日周游券，包含新干线普通车厢（除Nozomi和Mizuho），覆盖日本全国JR线路。</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>/images/coverage/japan-rail-pass-14day-ordinary.png</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
   </si>
   <si>
     <t>日本全国JR线路的21日周游券，包含新干线普通车厢（除Nozomi和Mizuho），覆盖日本全国JR线路。</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>/images/coverage/japan-rail-pass-21day-ordinary.png</t>
@@ -627,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -665,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -674,10 +665,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -722,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="AB1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -757,40 +748,40 @@
         <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
       </c>
       <c r="Z2">
         <v>5</v>
@@ -804,13 +795,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
       <c r="E3">
         <v>80000</v>
@@ -825,11 +816,11 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
         <v>41</v>
       </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
       <c r="P3" t="s">
         <v>27</v>
       </c>
@@ -837,28 +828,28 @@
         <v>27</v>
       </c>
       <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
         <v>29</v>
       </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
         <v>32</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>33</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>34</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>35</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>36</v>
       </c>
       <c r="Z3">
         <v>5</v>
@@ -872,13 +863,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
       <c r="E4">
         <v>100000</v>
@@ -893,10 +884,10 @@
         <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="O4">
+        <v>21</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
@@ -905,28 +896,28 @@
         <v>27</v>
       </c>
       <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
         <v>29</v>
       </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
         <v>32</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>33</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>34</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>35</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>36</v>
       </c>
       <c r="Z4">
         <v>5</v>
@@ -940,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>70000</v>
@@ -961,40 +952,40 @@
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
-        <v>30</v>
-      </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
         <v>32</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>33</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>34</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>35</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>36</v>
       </c>
       <c r="Z5">
         <v>5</v>
@@ -1008,13 +999,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>110000</v>
@@ -1029,10 +1020,10 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
       </c>
       <c r="P6" t="s">
         <v>27</v>
@@ -1041,28 +1032,28 @@
         <v>27</v>
       </c>
       <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
         <v>29</v>
       </c>
-      <c r="S6" t="s">
-        <v>30</v>
-      </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
         <v>32</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>33</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>34</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>35</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>36</v>
       </c>
       <c r="Z6">
         <v>4</v>
@@ -1076,13 +1067,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>140000</v>
@@ -1097,10 +1088,10 @@
         <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
@@ -1109,28 +1100,28 @@
         <v>27</v>
       </c>
       <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
         <v>29</v>
       </c>
-      <c r="S7" t="s">
-        <v>30</v>
-      </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s">
         <v>32</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>33</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>34</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>35</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>36</v>
       </c>
       <c r="Z7">
         <v>4</v>
@@ -1478,7 +1469,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="O1:AA7 A1:E7 F1:G7 H1:H7" numberStoredAsText="1"/>
+    <ignoredError sqref="O1:AA1 A1:E7 F1:G7 H1:H7 P4:AA4 P2:AA2 P3:AA3 P7:AA7 P5:AA5 P6:AA6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>